--- a/biology/Médecine/Didier_Lapeyre/Didier_Lapeyre.xlsx
+++ b/biology/Médecine/Didier_Lapeyre/Didier_Lapeyre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Lapeyre, né le 16 juillet 1939, est un chirurgien cardiaque, physiologiste et chercheur français reconnu comme pionnier des cœurs artificiels.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Lapeyre a travaillé 25 ans au sein du Texas Heart Institute (en).
 En collaboration avec Dassault-Aviation, M. Lapeyre a commencé à travailler sur la première valve cardiaque tri-dépliant dans les années 1980 
 Auparavant, M. Lapeyre a servi en tant que concepteur, directeur des affaires scientifiques et médicales du programme aérospatial de cœur artificiel total et a travaillé au CNRS français sur le premier cœur totalement artificiel.
-Didier Lapeyre est le fondateur de la société Suisse Triflomedical, qui se spécialise dans la recherche et le développement de nouveaux cœurs artificiels. L'entreprise a développé une valve cardiaque artificielle prénommée La Furtiva Lapeyre-Triflo ®[1],[2].
+Didier Lapeyre est le fondateur de la société Suisse Triflomedical, qui se spécialise dans la recherche et le développement de nouveaux cœurs artificiels. L'entreprise a développé une valve cardiaque artificielle prénommée La Furtiva Lapeyre-Triflo ®,.
 </t>
         </is>
       </c>
